--- a/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019247391367284</v>
+        <v>1.008464777648413</v>
       </c>
       <c r="D2">
-        <v>1.036076575331796</v>
+        <v>1.028041415998302</v>
       </c>
       <c r="E2">
-        <v>1.031804232820559</v>
+        <v>1.022857799168043</v>
       </c>
       <c r="F2">
-        <v>1.040697604333552</v>
+        <v>1.031789497474229</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049167771521364</v>
+        <v>1.046206109193874</v>
       </c>
       <c r="J2">
-        <v>1.040867270868779</v>
+        <v>1.030395223099975</v>
       </c>
       <c r="K2">
-        <v>1.047055184567767</v>
+        <v>1.039123437759273</v>
       </c>
       <c r="L2">
-        <v>1.042837576333587</v>
+        <v>1.034007614837464</v>
       </c>
       <c r="M2">
-        <v>1.051617643446152</v>
+        <v>1.042823030747171</v>
       </c>
       <c r="N2">
-        <v>1.042345421782557</v>
+        <v>1.031858502504766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026123459828309</v>
+        <v>1.01313484920736</v>
       </c>
       <c r="D3">
-        <v>1.041410820312823</v>
+        <v>1.031561945204157</v>
       </c>
       <c r="E3">
-        <v>1.037632183494774</v>
+        <v>1.026716723775419</v>
       </c>
       <c r="F3">
-        <v>1.046755620453625</v>
+        <v>1.035888912941071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050983686812474</v>
+        <v>1.047233762603281</v>
       </c>
       <c r="J3">
-        <v>1.045926448737866</v>
+        <v>1.033273738623813</v>
       </c>
       <c r="K3">
-        <v>1.051539902372346</v>
+        <v>1.041806304437531</v>
       </c>
       <c r="L3">
-        <v>1.047805172978904</v>
+        <v>1.037018800971631</v>
       </c>
       <c r="M3">
-        <v>1.056823264424184</v>
+        <v>1.046082292676605</v>
       </c>
       <c r="N3">
-        <v>1.047411784264515</v>
+        <v>1.034741105850813</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030453839869189</v>
+        <v>1.016096460418338</v>
       </c>
       <c r="D4">
-        <v>1.044772156606097</v>
+        <v>1.033796546399888</v>
       </c>
       <c r="E4">
-        <v>1.041308301971775</v>
+        <v>1.029169750487563</v>
       </c>
       <c r="F4">
-        <v>1.050576693201302</v>
+        <v>1.038494099297533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052115088808237</v>
+        <v>1.047874704536463</v>
       </c>
       <c r="J4">
-        <v>1.049109360125486</v>
+        <v>1.035097190897319</v>
       </c>
       <c r="K4">
-        <v>1.054358659142673</v>
+        <v>1.043503495233119</v>
       </c>
       <c r="L4">
-        <v>1.050932480179605</v>
+        <v>1.038928421506808</v>
       </c>
       <c r="M4">
-        <v>1.060100743206623</v>
+        <v>1.048149114345842</v>
       </c>
       <c r="N4">
-        <v>1.050599215751389</v>
+        <v>1.0365671476357</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032247312717361</v>
+        <v>1.017327619841824</v>
       </c>
       <c r="D5">
-        <v>1.046164662414823</v>
+        <v>1.034725901793858</v>
       </c>
       <c r="E5">
-        <v>1.042832121199363</v>
+        <v>1.030190837624754</v>
       </c>
       <c r="F5">
-        <v>1.052160557242897</v>
+        <v>1.039578352844484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052580680641744</v>
+        <v>1.048138522418369</v>
       </c>
       <c r="J5">
-        <v>1.050426759342914</v>
+        <v>1.035854691028618</v>
       </c>
       <c r="K5">
-        <v>1.05552465425772</v>
+        <v>1.044207970281607</v>
       </c>
       <c r="L5">
-        <v>1.052227340225415</v>
+        <v>1.039722226317642</v>
       </c>
       <c r="M5">
-        <v>1.061457854630995</v>
+        <v>1.049008233217391</v>
       </c>
       <c r="N5">
-        <v>1.051918485826814</v>
+        <v>1.037325723504072</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032546900332784</v>
+        <v>1.017533536322743</v>
       </c>
       <c r="D6">
-        <v>1.046397290366429</v>
+        <v>1.034881363197881</v>
       </c>
       <c r="E6">
-        <v>1.043086740122258</v>
+        <v>1.030361696638851</v>
       </c>
       <c r="F6">
-        <v>1.052425206723978</v>
+        <v>1.039759771492133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052658277125328</v>
+        <v>1.048182491477382</v>
       </c>
       <c r="J6">
-        <v>1.050646771100617</v>
+        <v>1.035981354420685</v>
       </c>
       <c r="K6">
-        <v>1.055719340085234</v>
+        <v>1.044325733056307</v>
       </c>
       <c r="L6">
-        <v>1.052443615576362</v>
+        <v>1.039854990165189</v>
       </c>
       <c r="M6">
-        <v>1.061684531726478</v>
+        <v>1.049151918847424</v>
       </c>
       <c r="N6">
-        <v>1.052138810026449</v>
+        <v>1.037452566772684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030477908674851</v>
+        <v>1.016112965187099</v>
       </c>
       <c r="D7">
-        <v>1.044790842994813</v>
+        <v>1.033809003646729</v>
       </c>
       <c r="E7">
-        <v>1.041328746863318</v>
+        <v>1.029183433784516</v>
       </c>
       <c r="F7">
-        <v>1.050597943872683</v>
+        <v>1.038508629743717</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052121349058753</v>
+        <v>1.04787825167226</v>
       </c>
       <c r="J7">
-        <v>1.049127043306979</v>
+        <v>1.035107347950771</v>
       </c>
       <c r="K7">
-        <v>1.054374312784404</v>
+        <v>1.043512943578208</v>
       </c>
       <c r="L7">
-        <v>1.050949858951622</v>
+        <v>1.038939063349164</v>
       </c>
       <c r="M7">
-        <v>1.060118957194459</v>
+        <v>1.048160631928396</v>
       </c>
       <c r="N7">
-        <v>1.050616924045029</v>
+        <v>1.036577319113333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021596713986457</v>
+        <v>1.010055843587261</v>
       </c>
       <c r="D8">
-        <v>1.037898634146103</v>
+        <v>1.029240384506137</v>
       </c>
       <c r="E8">
-        <v>1.033794172486877</v>
+        <v>1.024171262966681</v>
       </c>
       <c r="F8">
-        <v>1.042766132834731</v>
+        <v>1.033184967143276</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04979074524753</v>
+        <v>1.046558454414306</v>
       </c>
       <c r="J8">
-        <v>1.042596465570446</v>
+        <v>1.031376314801452</v>
       </c>
       <c r="K8">
-        <v>1.048588595340474</v>
+        <v>1.040038323724644</v>
       </c>
       <c r="L8">
-        <v>1.04453503994042</v>
+        <v>1.035033478158994</v>
       </c>
       <c r="M8">
-        <v>1.053396369831216</v>
+        <v>1.043933433323196</v>
       </c>
       <c r="N8">
-        <v>1.044077072139042</v>
+        <v>1.032840987468987</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004965223636832</v>
+        <v>0.998896377702006</v>
       </c>
       <c r="D9">
-        <v>1.025012602332205</v>
+        <v>1.020842047028359</v>
       </c>
       <c r="E9">
-        <v>1.019735506287915</v>
+        <v>1.014985561359126</v>
       </c>
       <c r="F9">
-        <v>1.028151623186629</v>
+        <v>1.023422718771433</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045330603666995</v>
+        <v>1.044043323795656</v>
       </c>
       <c r="J9">
-        <v>1.030343857237078</v>
+        <v>1.024488167999783</v>
       </c>
       <c r="K9">
-        <v>1.037712495785637</v>
+        <v>1.033605790586238</v>
       </c>
       <c r="L9">
-        <v>1.03251630262783</v>
+        <v>1.027840098608121</v>
       </c>
       <c r="M9">
-        <v>1.040803894283007</v>
+        <v>1.036146874636765</v>
       </c>
       <c r="N9">
-        <v>1.031807063696447</v>
+        <v>1.025943058708778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9931072066584341</v>
+        <v>0.9910931567580524</v>
       </c>
       <c r="D10">
-        <v>1.015846851444367</v>
+        <v>1.014986533773738</v>
       </c>
       <c r="E10">
-        <v>1.00975305993672</v>
+        <v>1.00859882588578</v>
       </c>
       <c r="F10">
-        <v>1.017773805656468</v>
+        <v>1.016631234976804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04208979583796</v>
+        <v>1.042230938123559</v>
       </c>
       <c r="J10">
-        <v>1.021596994155489</v>
+        <v>1.019664669903714</v>
       </c>
       <c r="K10">
-        <v>1.029935761790735</v>
+        <v>1.029090372993078</v>
       </c>
       <c r="L10">
-        <v>1.023948424753033</v>
+        <v>1.022814542302058</v>
       </c>
       <c r="M10">
-        <v>1.031829396488054</v>
+        <v>1.030706562603643</v>
       </c>
       <c r="N10">
-        <v>1.023047779066002</v>
+        <v>1.02111271069215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9877614764443229</v>
+        <v>0.9876191177379896</v>
       </c>
       <c r="D11">
-        <v>1.011721937401608</v>
+        <v>1.012384675597487</v>
       </c>
       <c r="E11">
-        <v>1.005264269566761</v>
+        <v>1.005764857994196</v>
       </c>
       <c r="F11">
-        <v>1.013107103537044</v>
+        <v>1.013616740560927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040615434504835</v>
+        <v>1.041411987871264</v>
       </c>
       <c r="J11">
-        <v>1.017652406690045</v>
+        <v>1.017516183034033</v>
       </c>
       <c r="K11">
-        <v>1.026426129807622</v>
+        <v>1.02707675429489</v>
       </c>
       <c r="L11">
-        <v>1.020087587658093</v>
+        <v>1.020578870305547</v>
       </c>
       <c r="M11">
-        <v>1.027786000997905</v>
+        <v>1.028286354022459</v>
       </c>
       <c r="N11">
-        <v>1.019097589833908</v>
+        <v>1.018961172724679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857413634461515</v>
+        <v>0.9863135807704112</v>
       </c>
       <c r="D12">
-        <v>1.01016441331653</v>
+        <v>1.011407752567494</v>
       </c>
       <c r="E12">
-        <v>1.003569857224941</v>
+        <v>1.004701351600944</v>
       </c>
       <c r="F12">
-        <v>1.01134551852081</v>
+        <v>1.012485347572363</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040056375498184</v>
+        <v>1.041102474784706</v>
       </c>
       <c r="J12">
-        <v>1.016161678048531</v>
+        <v>1.016708685455517</v>
       </c>
       <c r="K12">
-        <v>1.025099436117654</v>
+        <v>1.026319613590996</v>
       </c>
       <c r="L12">
-        <v>1.018628982502207</v>
+        <v>1.019739032025081</v>
       </c>
       <c r="M12">
-        <v>1.026258537116638</v>
+        <v>1.027377194424804</v>
       </c>
       <c r="N12">
-        <v>1.017604744186733</v>
+        <v>1.01815252840698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9861762921108562</v>
+        <v>0.9865943211414997</v>
       </c>
       <c r="D13">
-        <v>1.010499687364302</v>
+        <v>1.011617788449794</v>
       </c>
       <c r="E13">
-        <v>1.003934575775556</v>
+        <v>1.004929977445878</v>
       </c>
       <c r="F13">
-        <v>1.01172469646423</v>
+        <v>1.012728573592135</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040176824898432</v>
+        <v>1.041169110162293</v>
       </c>
       <c r="J13">
-        <v>1.016482633162263</v>
+        <v>1.01688233193362</v>
       </c>
       <c r="K13">
-        <v>1.025385089145175</v>
+        <v>1.0264824458631</v>
       </c>
       <c r="L13">
-        <v>1.018942999767279</v>
+        <v>1.019919613752196</v>
       </c>
       <c r="M13">
-        <v>1.026587373521769</v>
+        <v>1.027572681494223</v>
       </c>
       <c r="N13">
-        <v>1.017926155093541</v>
+        <v>1.018326421482999</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875952135180182</v>
+        <v>0.9875115151391336</v>
       </c>
       <c r="D14">
-        <v>1.011593720789753</v>
+        <v>1.01230413959805</v>
       </c>
       <c r="E14">
-        <v>1.00512477416495</v>
+        <v>1.005677172808802</v>
       </c>
       <c r="F14">
-        <v>1.012962078314998</v>
+        <v>1.013523461038937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040569459952111</v>
+        <v>1.041386513028253</v>
       </c>
       <c r="J14">
-        <v>1.017529715381658</v>
+        <v>1.017449630647111</v>
       </c>
       <c r="K14">
-        <v>1.026316945756452</v>
+        <v>1.027014358857634</v>
       </c>
       <c r="L14">
-        <v>1.019967530509831</v>
+        <v>1.020509643747545</v>
       </c>
       <c r="M14">
-        <v>1.027660273806291</v>
+        <v>1.028211413377669</v>
       </c>
       <c r="N14">
-        <v>1.01897472428979</v>
+        <v>1.018894525825734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9884648023838426</v>
+        <v>0.9880745989294699</v>
       </c>
       <c r="D15">
-        <v>1.012264371722565</v>
+        <v>1.01272561923392</v>
       </c>
       <c r="E15">
-        <v>1.005854440420207</v>
+        <v>1.006136090201071</v>
       </c>
       <c r="F15">
-        <v>1.013720669109645</v>
+        <v>1.014011651752936</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040809839201475</v>
+        <v>1.041519751635111</v>
       </c>
       <c r="J15">
-        <v>1.018171412577026</v>
+        <v>1.017797895151975</v>
       </c>
       <c r="K15">
-        <v>1.02688798393757</v>
+        <v>1.027340856875766</v>
       </c>
       <c r="L15">
-        <v>1.020595469914818</v>
+        <v>1.020871919470064</v>
       </c>
       <c r="M15">
-        <v>1.028317874025651</v>
+        <v>1.028603592051404</v>
       </c>
       <c r="N15">
-        <v>1.019617332768779</v>
+        <v>1.019243284906141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.993457309245931</v>
+        <v>0.9913216428003685</v>
       </c>
       <c r="D16">
-        <v>1.01611716271682</v>
+        <v>1.01515776969331</v>
       </c>
       <c r="E16">
-        <v>1.010047289013956</v>
+        <v>1.008785417674356</v>
       </c>
       <c r="F16">
-        <v>1.018079694099471</v>
+        <v>1.016829693411316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042186085839052</v>
+        <v>1.042284553699274</v>
       </c>
       <c r="J16">
-        <v>1.021855313314549</v>
+        <v>1.019805957952486</v>
       </c>
       <c r="K16">
-        <v>1.030165547563332</v>
+        <v>1.029222744577847</v>
       </c>
       <c r="L16">
-        <v>1.024201323607605</v>
+        <v>1.022961622805154</v>
       </c>
       <c r="M16">
-        <v>1.032094268326852</v>
+        <v>1.030865783217467</v>
       </c>
       <c r="N16">
-        <v>1.023306465067898</v>
+        <v>1.021254199386157</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9965306064565166</v>
+        <v>0.9933323792686266</v>
       </c>
       <c r="D17">
-        <v>1.01849085408706</v>
+        <v>1.016665275793845</v>
       </c>
       <c r="E17">
-        <v>1.012631420451918</v>
+        <v>1.010428557527415</v>
       </c>
       <c r="F17">
-        <v>1.02076621262942</v>
+        <v>1.018577225752114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043029845726931</v>
+        <v>1.042755018147267</v>
       </c>
       <c r="J17">
-        <v>1.024122764312273</v>
+        <v>1.021049217804138</v>
       </c>
       <c r="K17">
-        <v>1.032182257470968</v>
+        <v>1.030387278527084</v>
       </c>
       <c r="L17">
-        <v>1.026421541500037</v>
+        <v>1.024256174138214</v>
       </c>
       <c r="M17">
-        <v>1.034419675018173</v>
+        <v>1.032267184923089</v>
       </c>
       <c r="N17">
-        <v>1.025577136106119</v>
+        <v>1.022499224809402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983030394810428</v>
+        <v>0.9944960816730503</v>
       </c>
       <c r="D18">
-        <v>1.019860467190223</v>
+        <v>1.017538209446632</v>
       </c>
       <c r="E18">
-        <v>1.014122805436967</v>
+        <v>1.011380406525025</v>
       </c>
       <c r="F18">
-        <v>1.022316676350887</v>
+        <v>1.019589459662006</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043515193377752</v>
+        <v>1.043026147769637</v>
       </c>
       <c r="J18">
-        <v>1.02543030958716</v>
+        <v>1.021768645186257</v>
       </c>
       <c r="K18">
-        <v>1.033344968296315</v>
+        <v>1.031060925109842</v>
       </c>
       <c r="L18">
-        <v>1.027702133786247</v>
+        <v>1.025005548792054</v>
       </c>
       <c r="M18">
-        <v>1.035761001389159</v>
+        <v>1.033078408869865</v>
       </c>
       <c r="N18">
-        <v>1.026886538245275</v>
+        <v>1.023219673860923</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9989040507399296</v>
+        <v>0.9948913501928485</v>
       </c>
       <c r="D19">
-        <v>1.020324993247139</v>
+        <v>1.017834791694811</v>
       </c>
       <c r="E19">
-        <v>1.014628692711448</v>
+        <v>1.011703864938799</v>
       </c>
       <c r="F19">
-        <v>1.022842601347355</v>
+        <v>1.019933423194288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043679551531855</v>
+        <v>1.043118044266596</v>
       </c>
       <c r="J19">
-        <v>1.025873655964339</v>
+        <v>1.022012990251775</v>
       </c>
       <c r="K19">
-        <v>1.033739163734632</v>
+        <v>1.031289682452418</v>
       </c>
       <c r="L19">
-        <v>1.028136389041135</v>
+        <v>1.025260110237598</v>
       </c>
       <c r="M19">
-        <v>1.036215862210304</v>
+        <v>1.033353979782488</v>
       </c>
       <c r="N19">
-        <v>1.027330514225161</v>
+        <v>1.023464365924461</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9962029758210059</v>
+        <v>0.9931175959943008</v>
       </c>
       <c r="D20">
-        <v>1.018237735847002</v>
+        <v>1.016504196981026</v>
       </c>
       <c r="E20">
-        <v>1.012355826054921</v>
+        <v>1.01025294730551</v>
       </c>
       <c r="F20">
-        <v>1.020479700011756</v>
+        <v>1.018390467763865</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042940027036585</v>
+        <v>1.042704882767954</v>
       </c>
       <c r="J20">
-        <v>1.023881055142585</v>
+        <v>1.020916425232373</v>
       </c>
       <c r="K20">
-        <v>1.031967302092056</v>
+        <v>1.030262917872366</v>
       </c>
       <c r="L20">
-        <v>1.026184837696046</v>
+        <v>1.024117875409815</v>
       </c>
       <c r="M20">
-        <v>1.03417175016581</v>
+        <v>1.032117471497774</v>
       </c>
       <c r="N20">
-        <v>1.025335083681685</v>
+        <v>1.022366243656954</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9871783517977087</v>
+        <v>0.987241848772242</v>
       </c>
       <c r="D21">
-        <v>1.01127227124268</v>
+        <v>1.012102319728342</v>
       </c>
       <c r="E21">
-        <v>1.004775055781843</v>
+        <v>1.005457446430984</v>
       </c>
       <c r="F21">
-        <v>1.012598496306342</v>
+        <v>1.01328971380223</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040454160187456</v>
+        <v>1.041322641662092</v>
       </c>
       <c r="J21">
-        <v>1.017222097175121</v>
+        <v>1.017282840124165</v>
       </c>
       <c r="K21">
-        <v>1.026043188302616</v>
+        <v>1.026857981006932</v>
       </c>
       <c r="L21">
-        <v>1.019666524476502</v>
+        <v>1.020336158240283</v>
       </c>
       <c r="M21">
-        <v>1.027345053719667</v>
+        <v>1.028023608084137</v>
       </c>
       <c r="N21">
-        <v>1.018666669230116</v>
+        <v>1.018727498441114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9813031677088064</v>
+        <v>0.9834595779281449</v>
       </c>
       <c r="D22">
-        <v>1.00674505197012</v>
+        <v>1.009273792801989</v>
       </c>
       <c r="E22">
-        <v>0.9998508582628312</v>
+        <v>1.002379277019122</v>
       </c>
       <c r="F22">
-        <v>1.007479061420887</v>
+        <v>1.010014790125022</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038824720982012</v>
+        <v>1.040422699935897</v>
       </c>
       <c r="J22">
-        <v>1.01288649727931</v>
+        <v>1.014943313309135</v>
       </c>
       <c r="K22">
-        <v>1.02218406192681</v>
+        <v>1.024663745806422</v>
       </c>
       <c r="L22">
-        <v>1.015425270259239</v>
+        <v>1.017903746861622</v>
       </c>
       <c r="M22">
-        <v>1.022903798518144</v>
+        <v>1.025390428926849</v>
       </c>
       <c r="N22">
-        <v>1.014324912285152</v>
+        <v>1.016384649229659</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.98443777621718</v>
+        <v>0.9854732588206976</v>
       </c>
       <c r="D23">
-        <v>1.009159713731983</v>
+        <v>1.010779197639646</v>
       </c>
       <c r="E23">
-        <v>1.002476993596818</v>
+        <v>1.004017245424471</v>
       </c>
       <c r="F23">
-        <v>1.010209326021658</v>
+        <v>1.011757533398651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039695087734765</v>
+        <v>1.040902767235656</v>
       </c>
       <c r="J23">
-        <v>1.015199692387525</v>
+        <v>1.016188910401379</v>
       </c>
       <c r="K23">
-        <v>1.024243213055202</v>
+        <v>1.025832161599271</v>
       </c>
       <c r="L23">
-        <v>1.017687862088572</v>
+        <v>1.019198560715403</v>
       </c>
       <c r="M23">
-        <v>1.025273020323445</v>
+        <v>1.026792112690644</v>
       </c>
       <c r="N23">
-        <v>1.016641392395748</v>
+        <v>1.017632015212646</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9963510801276984</v>
+        <v>0.9932146754532423</v>
       </c>
       <c r="D24">
-        <v>1.018352155054057</v>
+        <v>1.016577001209135</v>
       </c>
       <c r="E24">
-        <v>1.012480404266508</v>
+        <v>1.010332318258386</v>
       </c>
       <c r="F24">
-        <v>1.020609213675129</v>
+        <v>1.01847487747164</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042980633205792</v>
+        <v>1.042727546923937</v>
       </c>
       <c r="J24">
-        <v>1.023990319387502</v>
+        <v>1.020976446200253</v>
       </c>
       <c r="K24">
-        <v>1.032064473084233</v>
+        <v>1.030319128394262</v>
       </c>
       <c r="L24">
-        <v>1.026291838391556</v>
+        <v>1.024180384280604</v>
       </c>
       <c r="M24">
-        <v>1.034283823082993</v>
+        <v>1.032185139643389</v>
       </c>
       <c r="N24">
-        <v>1.025444503094363</v>
+        <v>1.022426349861493</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009391871614164</v>
+        <v>1.001842605218338</v>
       </c>
       <c r="D25">
-        <v>1.028439217294926</v>
+        <v>1.023056695312854</v>
       </c>
       <c r="E25">
-        <v>1.023470830940807</v>
+        <v>1.017404687084801</v>
       </c>
       <c r="F25">
-        <v>1.032034762490746</v>
+        <v>1.025994350561152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046528417653432</v>
+        <v>1.04471681457863</v>
       </c>
       <c r="J25">
-        <v>1.03360724368831</v>
+        <v>1.026308117070996</v>
       </c>
       <c r="K25">
-        <v>1.040611528238831</v>
+        <v>1.035307327116418</v>
       </c>
       <c r="L25">
-        <v>1.035715399550361</v>
+        <v>1.029738694846704</v>
       </c>
       <c r="M25">
-        <v>1.044155331064632</v>
+        <v>1.038202107486921</v>
       </c>
       <c r="N25">
-        <v>1.035075084530755</v>
+        <v>1.027765592316424</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008464777648413</v>
+        <v>1.003831628774736</v>
       </c>
       <c r="D2">
-        <v>1.028041415998302</v>
+        <v>1.024116438703231</v>
       </c>
       <c r="E2">
-        <v>1.022857799168043</v>
+        <v>1.019744093839395</v>
       </c>
       <c r="F2">
-        <v>1.031789497474229</v>
+        <v>1.030647261303188</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046206109193874</v>
+        <v>1.044672595593469</v>
       </c>
       <c r="J2">
-        <v>1.030395223099975</v>
+        <v>1.025898337355288</v>
       </c>
       <c r="K2">
-        <v>1.039123437759273</v>
+        <v>1.035249714193045</v>
       </c>
       <c r="L2">
-        <v>1.034007614837464</v>
+        <v>1.030935047837113</v>
       </c>
       <c r="M2">
-        <v>1.042823030747171</v>
+        <v>1.041695524808324</v>
       </c>
       <c r="N2">
-        <v>1.031858502504766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012487081917375</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041571600808573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01313484920736</v>
+        <v>1.007421059881973</v>
       </c>
       <c r="D3">
-        <v>1.031561945204157</v>
+        <v>1.026585059921396</v>
       </c>
       <c r="E3">
-        <v>1.026716723775419</v>
+        <v>1.022508313061728</v>
       </c>
       <c r="F3">
-        <v>1.035888912941071</v>
+        <v>1.033308936414731</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047233762603281</v>
+        <v>1.045257812192874</v>
       </c>
       <c r="J3">
-        <v>1.033273738623813</v>
+        <v>1.027711443581027</v>
       </c>
       <c r="K3">
-        <v>1.041806304437531</v>
+        <v>1.036888714975269</v>
       </c>
       <c r="L3">
-        <v>1.037018800971631</v>
+        <v>1.032861073485891</v>
       </c>
       <c r="M3">
-        <v>1.046082292676605</v>
+        <v>1.043532649299922</v>
       </c>
       <c r="N3">
-        <v>1.034741105850813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013103336359248</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043025558052535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016096460418338</v>
+        <v>1.009704836972808</v>
       </c>
       <c r="D4">
-        <v>1.033796546399888</v>
+        <v>1.028157866699584</v>
       </c>
       <c r="E4">
-        <v>1.029169750487563</v>
+        <v>1.024272905284256</v>
       </c>
       <c r="F4">
-        <v>1.038494099297533</v>
+        <v>1.035008349754825</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047874704536463</v>
+        <v>1.045619907758592</v>
       </c>
       <c r="J4">
-        <v>1.035097190897319</v>
+        <v>1.028863508267883</v>
       </c>
       <c r="K4">
-        <v>1.043503495233119</v>
+        <v>1.037927925817688</v>
       </c>
       <c r="L4">
-        <v>1.038928421506808</v>
+        <v>1.03408694488449</v>
       </c>
       <c r="M4">
-        <v>1.048149114345842</v>
+        <v>1.044701846018155</v>
       </c>
       <c r="N4">
-        <v>1.0365671476357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013494689438177</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043950895047421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017327619841824</v>
+        <v>1.010655900140716</v>
       </c>
       <c r="D5">
-        <v>1.034725901793858</v>
+        <v>1.028813320848589</v>
       </c>
       <c r="E5">
-        <v>1.030190837624754</v>
+        <v>1.025009128110796</v>
       </c>
       <c r="F5">
-        <v>1.039578352844484</v>
+        <v>1.035717440539318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048138522418369</v>
+        <v>1.04576820396623</v>
       </c>
       <c r="J5">
-        <v>1.035854691028618</v>
+        <v>1.029342885113548</v>
       </c>
       <c r="K5">
-        <v>1.044207970281607</v>
+        <v>1.038359796191255</v>
       </c>
       <c r="L5">
-        <v>1.039722226317642</v>
+        <v>1.034597526135418</v>
       </c>
       <c r="M5">
-        <v>1.049008233217391</v>
+        <v>1.045188796291963</v>
       </c>
       <c r="N5">
-        <v>1.037325723504072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013657477174194</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04433628160484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017533536322743</v>
+        <v>1.010815065233925</v>
       </c>
       <c r="D6">
-        <v>1.034881363197881</v>
+        <v>1.028923040629173</v>
       </c>
       <c r="E6">
-        <v>1.030361696638851</v>
+        <v>1.025132418183955</v>
       </c>
       <c r="F6">
-        <v>1.039759771492133</v>
+        <v>1.035836190469682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048182491477382</v>
+        <v>1.045792874302876</v>
       </c>
       <c r="J6">
-        <v>1.035981354420685</v>
+        <v>1.029423087348397</v>
       </c>
       <c r="K6">
-        <v>1.044325733056307</v>
+        <v>1.038432017753732</v>
       </c>
       <c r="L6">
-        <v>1.039854990165189</v>
+        <v>1.034682978020903</v>
       </c>
       <c r="M6">
-        <v>1.049151918847424</v>
+        <v>1.045270291629686</v>
       </c>
       <c r="N6">
-        <v>1.037452566772684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013684709097285</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044400779356808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016112965187099</v>
+        <v>1.009717580297971</v>
       </c>
       <c r="D7">
-        <v>1.033809003646729</v>
+        <v>1.028166647355238</v>
       </c>
       <c r="E7">
-        <v>1.029183433784516</v>
+        <v>1.02428276459187</v>
       </c>
       <c r="F7">
-        <v>1.038508629743717</v>
+        <v>1.035017845480557</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04787825167226</v>
+        <v>1.045621904684536</v>
       </c>
       <c r="J7">
-        <v>1.035107347950771</v>
+        <v>1.028869933037352</v>
       </c>
       <c r="K7">
-        <v>1.043512943578208</v>
+        <v>1.037933716070218</v>
       </c>
       <c r="L7">
-        <v>1.038939063349164</v>
+        <v>1.034093785918341</v>
       </c>
       <c r="M7">
-        <v>1.048160631928396</v>
+        <v>1.044708370538307</v>
       </c>
       <c r="N7">
-        <v>1.036577319113333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013496871395023</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043956058743079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010055843587261</v>
+        <v>1.00505289130407</v>
       </c>
       <c r="D8">
-        <v>1.029240384506137</v>
+        <v>1.024955882030974</v>
       </c>
       <c r="E8">
-        <v>1.024171262966681</v>
+        <v>1.020683341180169</v>
       </c>
       <c r="F8">
-        <v>1.033184967143276</v>
+        <v>1.031551602975307</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046558454414306</v>
+        <v>1.04487382980504</v>
       </c>
       <c r="J8">
-        <v>1.031376314801452</v>
+        <v>1.026515528409598</v>
       </c>
       <c r="K8">
-        <v>1.040038323724644</v>
+        <v>1.035808096384406</v>
       </c>
       <c r="L8">
-        <v>1.035033478158994</v>
+        <v>1.031590246502847</v>
       </c>
       <c r="M8">
-        <v>1.043933433323196</v>
+        <v>1.042320497615955</v>
       </c>
       <c r="N8">
-        <v>1.032840987468987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012696903080191</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042066223979726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.998896377702006</v>
+        <v>0.9965236704761768</v>
       </c>
       <c r="D9">
-        <v>1.020842047028359</v>
+        <v>1.019104193379329</v>
       </c>
       <c r="E9">
-        <v>1.014985561359126</v>
+        <v>1.014149838989454</v>
       </c>
       <c r="F9">
-        <v>1.023422718771433</v>
+        <v>1.025262333000684</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044043323795656</v>
+        <v>1.043426753711407</v>
       </c>
       <c r="J9">
-        <v>1.024488167999783</v>
+        <v>1.022199786966982</v>
       </c>
       <c r="K9">
-        <v>1.033605790586238</v>
+        <v>1.031894740003202</v>
       </c>
       <c r="L9">
-        <v>1.027840098608121</v>
+        <v>1.027017441864536</v>
       </c>
       <c r="M9">
-        <v>1.036146874636765</v>
+        <v>1.037958424157756</v>
       </c>
       <c r="N9">
-        <v>1.025943058708778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01122887580167</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038613934531268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9910931567580524</v>
+        <v>0.9906663408992803</v>
       </c>
       <c r="D10">
-        <v>1.014986533773738</v>
+        <v>1.015120463983592</v>
       </c>
       <c r="E10">
-        <v>1.00859882588578</v>
+        <v>1.009720631154988</v>
       </c>
       <c r="F10">
-        <v>1.016631234976804</v>
+        <v>1.021034520539209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042230938123559</v>
+        <v>1.042397516106067</v>
       </c>
       <c r="J10">
-        <v>1.019664669903714</v>
+        <v>1.019255233863057</v>
       </c>
       <c r="K10">
-        <v>1.029090372993078</v>
+        <v>1.029221976993772</v>
       </c>
       <c r="L10">
-        <v>1.022814542302058</v>
+        <v>1.02391656693616</v>
       </c>
       <c r="M10">
-        <v>1.030706562603643</v>
+        <v>1.035034099551218</v>
       </c>
       <c r="N10">
-        <v>1.02111271069215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010229735876677</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03635108934579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9876191177379896</v>
+        <v>0.9885170642922497</v>
       </c>
       <c r="D11">
-        <v>1.012384675597487</v>
+        <v>1.013818212165565</v>
       </c>
       <c r="E11">
-        <v>1.005764857994196</v>
+        <v>1.00828997930524</v>
       </c>
       <c r="F11">
-        <v>1.013616740560927</v>
+        <v>1.019939884476275</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041411987871264</v>
+        <v>1.042133030409413</v>
       </c>
       <c r="J11">
-        <v>1.017516183034033</v>
+        <v>1.018375474140777</v>
       </c>
       <c r="K11">
-        <v>1.02707675429489</v>
+        <v>1.028484158791724</v>
       </c>
       <c r="L11">
-        <v>1.020578870305547</v>
+        <v>1.023057234005232</v>
       </c>
       <c r="M11">
-        <v>1.028286354022459</v>
+        <v>1.034495312256865</v>
       </c>
       <c r="N11">
-        <v>1.018961172724679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009961171769842</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03636197538492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9863135807704112</v>
+        <v>0.9878853480128315</v>
       </c>
       <c r="D12">
-        <v>1.011407752567494</v>
+        <v>1.013509276903576</v>
       </c>
       <c r="E12">
-        <v>1.004701351600944</v>
+        <v>1.007955351461974</v>
       </c>
       <c r="F12">
-        <v>1.012485347572363</v>
+        <v>1.019820233935459</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041102474784706</v>
+        <v>1.042111916185913</v>
       </c>
       <c r="J12">
-        <v>1.016708685455517</v>
+        <v>1.018211420844969</v>
       </c>
       <c r="K12">
-        <v>1.026319613590996</v>
+        <v>1.02838215772558</v>
       </c>
       <c r="L12">
-        <v>1.019739032025081</v>
+        <v>1.022931710246581</v>
       </c>
       <c r="M12">
-        <v>1.027377194424804</v>
+        <v>1.034577312254223</v>
       </c>
       <c r="N12">
-        <v>1.01815252840698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009930907229906</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036753912770847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9865943211414997</v>
+        <v>0.988380581609324</v>
       </c>
       <c r="D13">
-        <v>1.011617788449794</v>
+        <v>1.013945580261615</v>
       </c>
       <c r="E13">
-        <v>1.004929977445878</v>
+        <v>1.008443377638686</v>
       </c>
       <c r="F13">
-        <v>1.012728573592135</v>
+        <v>1.02045187319048</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041169110162293</v>
+        <v>1.042281697571332</v>
       </c>
       <c r="J13">
-        <v>1.01688233193362</v>
+        <v>1.018590515744802</v>
       </c>
       <c r="K13">
-        <v>1.0264824458631</v>
+        <v>1.028767240906601</v>
       </c>
       <c r="L13">
-        <v>1.019919613752196</v>
+        <v>1.023367087312806</v>
       </c>
       <c r="M13">
-        <v>1.027572681494223</v>
+        <v>1.035154708788186</v>
       </c>
       <c r="N13">
-        <v>1.018326421482999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010082973618529</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.037487593133915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9875115151391336</v>
+        <v>0.9892369408066422</v>
       </c>
       <c r="D14">
-        <v>1.01230413959805</v>
+        <v>1.014587570225519</v>
       </c>
       <c r="E14">
-        <v>1.005677172808802</v>
+        <v>1.00915651670042</v>
       </c>
       <c r="F14">
-        <v>1.013523461038937</v>
+        <v>1.021233355598232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041386513028253</v>
+        <v>1.042486237430468</v>
       </c>
       <c r="J14">
-        <v>1.017449630647111</v>
+        <v>1.019100738107302</v>
       </c>
       <c r="K14">
-        <v>1.027014358857634</v>
+        <v>1.029256146992287</v>
       </c>
       <c r="L14">
-        <v>1.020509643747545</v>
+        <v>1.023924541168258</v>
       </c>
       <c r="M14">
-        <v>1.028211413377669</v>
+        <v>1.03578211054965</v>
       </c>
       <c r="N14">
-        <v>1.018894525825734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010271540102213</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038157091749441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880745989294699</v>
+        <v>0.9896924318655409</v>
       </c>
       <c r="D15">
-        <v>1.01272561923392</v>
+        <v>1.014909433067449</v>
       </c>
       <c r="E15">
-        <v>1.006136090201071</v>
+        <v>1.009513776183752</v>
       </c>
       <c r="F15">
-        <v>1.014011651752936</v>
+        <v>1.021596599730346</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041519751635111</v>
+        <v>1.042579124289845</v>
       </c>
       <c r="J15">
-        <v>1.017797895151975</v>
+        <v>1.019346668012143</v>
       </c>
       <c r="K15">
-        <v>1.027340856875766</v>
+        <v>1.029485154947714</v>
       </c>
       <c r="L15">
-        <v>1.020871919470064</v>
+        <v>1.024187536069153</v>
       </c>
       <c r="M15">
-        <v>1.028603592051404</v>
+        <v>1.036052681651701</v>
       </c>
       <c r="N15">
-        <v>1.019243284906141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010358296841077</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038408528501587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9913216428003685</v>
+        <v>0.9920721740579497</v>
       </c>
       <c r="D16">
-        <v>1.01515776969331</v>
+        <v>1.016510928791504</v>
       </c>
       <c r="E16">
-        <v>1.008785417674356</v>
+        <v>1.011293252097054</v>
       </c>
       <c r="F16">
-        <v>1.016829693411316</v>
+        <v>1.02328404905765</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042284553699274</v>
+        <v>1.042995673079447</v>
       </c>
       <c r="J16">
-        <v>1.019805957952486</v>
+        <v>1.020526097071649</v>
       </c>
       <c r="K16">
-        <v>1.029222744577847</v>
+        <v>1.030552516270097</v>
       </c>
       <c r="L16">
-        <v>1.022961622805154</v>
+        <v>1.025425465971514</v>
       </c>
       <c r="M16">
-        <v>1.030865783217467</v>
+        <v>1.037209772897039</v>
       </c>
       <c r="N16">
-        <v>1.021254199386157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010753748819627</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039284331734957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9933323792686266</v>
+        <v>0.9934501529155481</v>
       </c>
       <c r="D17">
-        <v>1.016665275793845</v>
+        <v>1.0174034784128</v>
       </c>
       <c r="E17">
-        <v>1.010428557527415</v>
+        <v>1.012285485921569</v>
       </c>
       <c r="F17">
-        <v>1.018577225752114</v>
+        <v>1.024165682127106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042755018147267</v>
+        <v>1.043205074270397</v>
       </c>
       <c r="J17">
-        <v>1.021049217804138</v>
+        <v>1.021162379993198</v>
       </c>
       <c r="K17">
-        <v>1.030387278527084</v>
+        <v>1.031113090748365</v>
       </c>
       <c r="L17">
-        <v>1.024256174138214</v>
+        <v>1.026081481275926</v>
       </c>
       <c r="M17">
-        <v>1.032267184923089</v>
+        <v>1.037762863376782</v>
       </c>
       <c r="N17">
-        <v>1.022499224809402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010957772154615</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039592333065975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9944960816730503</v>
+        <v>0.9940913910249189</v>
       </c>
       <c r="D18">
-        <v>1.017538209446632</v>
+        <v>1.017758227875876</v>
       </c>
       <c r="E18">
-        <v>1.011380406525025</v>
+        <v>1.012677474853187</v>
       </c>
       <c r="F18">
-        <v>1.019589459662006</v>
+        <v>1.024405310017421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043026147769637</v>
+        <v>1.043252576203134</v>
       </c>
       <c r="J18">
-        <v>1.021768645186257</v>
+        <v>1.021379492022287</v>
       </c>
       <c r="K18">
-        <v>1.031060925109842</v>
+        <v>1.031277313342555</v>
       </c>
       <c r="L18">
-        <v>1.025005548792054</v>
+        <v>1.02628090872967</v>
       </c>
       <c r="M18">
-        <v>1.033078408869865</v>
+        <v>1.037815666045077</v>
       </c>
       <c r="N18">
-        <v>1.023219673860923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011012002547374</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039396095819217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9948913501928485</v>
+        <v>0.9940653911240822</v>
       </c>
       <c r="D19">
-        <v>1.017834791694811</v>
+        <v>1.017626490900844</v>
       </c>
       <c r="E19">
-        <v>1.011703864938799</v>
+        <v>1.012523812833747</v>
       </c>
       <c r="F19">
-        <v>1.019933423194288</v>
+        <v>1.024060566076892</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043118044266596</v>
+        <v>1.043156253479652</v>
       </c>
       <c r="J19">
-        <v>1.022012990251775</v>
+        <v>1.021218540377026</v>
       </c>
       <c r="K19">
-        <v>1.031289682452418</v>
+        <v>1.031084799449103</v>
       </c>
       <c r="L19">
-        <v>1.025260110237598</v>
+        <v>1.026066411449802</v>
       </c>
       <c r="M19">
-        <v>1.033353979782488</v>
+        <v>1.037414128406722</v>
       </c>
       <c r="N19">
-        <v>1.023464365924461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010933093182051</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03875262564778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9931175959943008</v>
+        <v>0.9921841306356757</v>
       </c>
       <c r="D20">
-        <v>1.016504196981026</v>
+        <v>1.016152319977916</v>
       </c>
       <c r="E20">
-        <v>1.01025294730551</v>
+        <v>1.010866815833872</v>
       </c>
       <c r="F20">
-        <v>1.018390467763865</v>
+        <v>1.022130170181066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042704882767954</v>
+        <v>1.042668514039135</v>
       </c>
       <c r="J20">
-        <v>1.020916425232373</v>
+        <v>1.020019701546359</v>
       </c>
       <c r="K20">
-        <v>1.030262917872366</v>
+        <v>1.029916974401371</v>
       </c>
       <c r="L20">
-        <v>1.024117875409815</v>
+        <v>1.024721239316557</v>
       </c>
       <c r="M20">
-        <v>1.032117471497774</v>
+        <v>1.035794737497185</v>
       </c>
       <c r="N20">
-        <v>1.022366243656954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010489334295083</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036942479471579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987241848772242</v>
+        <v>0.987710434359128</v>
       </c>
       <c r="D21">
-        <v>1.012102319728342</v>
+        <v>1.013086648651105</v>
       </c>
       <c r="E21">
-        <v>1.005457446430984</v>
+        <v>1.007460770141316</v>
       </c>
       <c r="F21">
-        <v>1.01328971380223</v>
+        <v>1.018827075691313</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041322641662092</v>
+        <v>1.041841996159579</v>
       </c>
       <c r="J21">
-        <v>1.017282840124165</v>
+        <v>1.01773111759281</v>
       </c>
       <c r="K21">
-        <v>1.026857981006932</v>
+        <v>1.027824260760243</v>
       </c>
       <c r="L21">
-        <v>1.020336158240283</v>
+        <v>1.022302161234077</v>
       </c>
       <c r="M21">
-        <v>1.028023608084137</v>
+        <v>1.033460331513348</v>
       </c>
       <c r="N21">
-        <v>1.018727498441114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009707157035958</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035053977554055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,81 +1373,93 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9834595779281449</v>
+        <v>0.9848719962483656</v>
       </c>
       <c r="D22">
-        <v>1.009273792801989</v>
+        <v>1.011155433719407</v>
       </c>
       <c r="E22">
-        <v>1.002379277019122</v>
+        <v>1.005319403216629</v>
       </c>
       <c r="F22">
-        <v>1.010014790125022</v>
+        <v>1.016767847665174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040422699935897</v>
+        <v>1.041315242683983</v>
       </c>
       <c r="J22">
-        <v>1.014943313309135</v>
+        <v>1.016290838058284</v>
       </c>
       <c r="K22">
-        <v>1.024663745806422</v>
+        <v>1.026509091855685</v>
       </c>
       <c r="L22">
-        <v>1.017903746861622</v>
+        <v>1.02078621312798</v>
       </c>
       <c r="M22">
-        <v>1.025390428926849</v>
+        <v>1.032014291416318</v>
       </c>
       <c r="N22">
-        <v>1.016384649229659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009216428265436</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033909524109811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9854732588206976</v>
+        <v>0.9863818210497134</v>
       </c>
       <c r="D23">
-        <v>1.010779197639646</v>
+        <v>1.012182257572549</v>
       </c>
       <c r="E23">
-        <v>1.004017245424471</v>
+        <v>1.006457667037435</v>
       </c>
       <c r="F23">
-        <v>1.011757533398651</v>
+        <v>1.017862393856277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040902767235656</v>
+        <v>1.041596345560277</v>
       </c>
       <c r="J23">
-        <v>1.016188910401379</v>
+        <v>1.017056993257197</v>
       </c>
       <c r="K23">
-        <v>1.025832161599271</v>
+        <v>1.027208869987933</v>
       </c>
       <c r="L23">
-        <v>1.019198560715403</v>
+        <v>1.021592399561013</v>
       </c>
       <c r="M23">
-        <v>1.026792112690644</v>
+        <v>1.032783292579259</v>
       </c>
       <c r="N23">
-        <v>1.017632015212646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009477484819806</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034518142339523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9932146754532423</v>
+        <v>0.9922147178319479</v>
       </c>
       <c r="D24">
-        <v>1.016577001209135</v>
+        <v>1.016158211115857</v>
       </c>
       <c r="E24">
-        <v>1.010332318258386</v>
+        <v>1.010871745822407</v>
       </c>
       <c r="F24">
-        <v>1.01847487747164</v>
+        <v>1.02210811748475</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042727546923937</v>
+        <v>1.042662122400543</v>
       </c>
       <c r="J24">
-        <v>1.020976446200253</v>
+        <v>1.020015784879589</v>
       </c>
       <c r="K24">
-        <v>1.030319128394262</v>
+        <v>1.029907390389746</v>
       </c>
       <c r="L24">
-        <v>1.024180384280604</v>
+        <v>1.024710593928823</v>
       </c>
       <c r="M24">
-        <v>1.032185139643389</v>
+        <v>1.035757803230546</v>
       </c>
       <c r="N24">
-        <v>1.022426349861493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010485332150488</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036872283918599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001842605218338</v>
+        <v>0.9987671159027328</v>
       </c>
       <c r="D25">
-        <v>1.023056695312854</v>
+        <v>1.020640826503184</v>
       </c>
       <c r="E25">
-        <v>1.017404687084801</v>
+        <v>1.015862503766134</v>
       </c>
       <c r="F25">
-        <v>1.025994350561152</v>
+        <v>1.026910644379847</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04471681457863</v>
+        <v>1.043816408646191</v>
       </c>
       <c r="J25">
-        <v>1.026308117070996</v>
+        <v>1.023336042871769</v>
       </c>
       <c r="K25">
-        <v>1.035307327116418</v>
+        <v>1.032926952631627</v>
       </c>
       <c r="L25">
-        <v>1.029738694846704</v>
+        <v>1.028219466035756</v>
       </c>
       <c r="M25">
-        <v>1.038202107486921</v>
+        <v>1.039105091693601</v>
       </c>
       <c r="N25">
-        <v>1.027765592316424</v>
+        <v>1.011615558523577</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039521446812262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003831628774736</v>
+        <v>1.003742124349335</v>
       </c>
       <c r="D2">
-        <v>1.024116438703231</v>
+        <v>1.02363256972864</v>
       </c>
       <c r="E2">
-        <v>1.019744093839395</v>
+        <v>1.019624075677383</v>
       </c>
       <c r="F2">
-        <v>1.030647261303188</v>
+        <v>1.030406292825734</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044672595593469</v>
+        <v>1.044482317016467</v>
       </c>
       <c r="J2">
-        <v>1.025898337355288</v>
+        <v>1.02581148231675</v>
       </c>
       <c r="K2">
-        <v>1.035249714193045</v>
+        <v>1.034772197860602</v>
       </c>
       <c r="L2">
-        <v>1.030935047837113</v>
+        <v>1.03081662166783</v>
       </c>
       <c r="M2">
-        <v>1.041695524808324</v>
+        <v>1.041457669069837</v>
       </c>
       <c r="N2">
-        <v>1.012487081917375</v>
+        <v>1.014005263718477</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041571600808573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041383354194155</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02132774463798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007421059881973</v>
+        <v>1.007190433960647</v>
       </c>
       <c r="D3">
-        <v>1.026585059921396</v>
+        <v>1.02591850373197</v>
       </c>
       <c r="E3">
-        <v>1.022508313061728</v>
+        <v>1.022262322054425</v>
       </c>
       <c r="F3">
-        <v>1.033308936414731</v>
+        <v>1.032937452161151</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045257812192874</v>
+        <v>1.044990613195426</v>
       </c>
       <c r="J3">
-        <v>1.027711443581027</v>
+        <v>1.027486981475246</v>
       </c>
       <c r="K3">
-        <v>1.036888714975269</v>
+        <v>1.036230154496553</v>
       </c>
       <c r="L3">
-        <v>1.032861073485891</v>
+        <v>1.032618061058509</v>
       </c>
       <c r="M3">
-        <v>1.043532649299922</v>
+        <v>1.043165548093477</v>
       </c>
       <c r="N3">
-        <v>1.013103336359248</v>
+        <v>1.014458186194515</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043025558052535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042735023016337</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021618031517198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009704836972808</v>
+        <v>1.009385395983812</v>
       </c>
       <c r="D4">
-        <v>1.028157866699584</v>
+        <v>1.027375724542644</v>
       </c>
       <c r="E4">
-        <v>1.024272905284256</v>
+        <v>1.023947482303786</v>
       </c>
       <c r="F4">
-        <v>1.035008349754825</v>
+        <v>1.03455445438233</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045619907758592</v>
+        <v>1.04530397877588</v>
       </c>
       <c r="J4">
-        <v>1.028863508267883</v>
+        <v>1.028552031634652</v>
       </c>
       <c r="K4">
-        <v>1.037927925817688</v>
+        <v>1.037154605105415</v>
       </c>
       <c r="L4">
-        <v>1.03408694488449</v>
+        <v>1.033765224601738</v>
       </c>
       <c r="M4">
-        <v>1.044701846018155</v>
+        <v>1.044252984926022</v>
       </c>
       <c r="N4">
-        <v>1.013494689438177</v>
+        <v>1.014745960788753</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043950895047421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043595653191896</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021799606115831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010655900140716</v>
+        <v>1.010299693754861</v>
       </c>
       <c r="D5">
-        <v>1.028813320848589</v>
+        <v>1.027983193164534</v>
       </c>
       <c r="E5">
-        <v>1.025009128110796</v>
+        <v>1.024650791473131</v>
       </c>
       <c r="F5">
-        <v>1.035717440539318</v>
+        <v>1.035229369952499</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04576820396623</v>
+        <v>1.045432030493884</v>
       </c>
       <c r="J5">
-        <v>1.029342885113548</v>
+        <v>1.028995296433795</v>
       </c>
       <c r="K5">
-        <v>1.038359796191255</v>
+        <v>1.037538784102883</v>
       </c>
       <c r="L5">
-        <v>1.034597526135418</v>
+        <v>1.03424315813679</v>
       </c>
       <c r="M5">
-        <v>1.045188796291963</v>
+        <v>1.044705995749307</v>
       </c>
       <c r="N5">
-        <v>1.013657477174194</v>
+        <v>1.01486569729788</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04433628160484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043954179265764</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021874460410264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010815065233925</v>
+        <v>1.010452718612845</v>
       </c>
       <c r="D6">
-        <v>1.028923040629173</v>
+        <v>1.028084890937109</v>
       </c>
       <c r="E6">
-        <v>1.025132418183955</v>
+        <v>1.024768582793311</v>
       </c>
       <c r="F6">
-        <v>1.035836190469682</v>
+        <v>1.035342408783254</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045792874302876</v>
+        <v>1.045453315632022</v>
       </c>
       <c r="J6">
-        <v>1.029423087348397</v>
+        <v>1.029069462331712</v>
       </c>
       <c r="K6">
-        <v>1.038432017753732</v>
+        <v>1.037603030048477</v>
       </c>
       <c r="L6">
-        <v>1.034682978020903</v>
+        <v>1.034323153749103</v>
       </c>
       <c r="M6">
-        <v>1.045270291629686</v>
+        <v>1.044781817424715</v>
       </c>
       <c r="N6">
-        <v>1.013684709097285</v>
+        <v>1.014885729323284</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044400779356808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044014186749922</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021886942548675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009717580297971</v>
+        <v>1.009405098234536</v>
       </c>
       <c r="D7">
-        <v>1.028166647355238</v>
+        <v>1.027389402195627</v>
       </c>
       <c r="E7">
-        <v>1.02428276459187</v>
+        <v>1.023963163635712</v>
       </c>
       <c r="F7">
-        <v>1.035017845480557</v>
+        <v>1.034568732665451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045621904684536</v>
+        <v>1.045308164663294</v>
       </c>
       <c r="J7">
-        <v>1.028869933037352</v>
+        <v>1.028565238646385</v>
       </c>
       <c r="K7">
-        <v>1.037933716070218</v>
+        <v>1.03716523396351</v>
       </c>
       <c r="L7">
-        <v>1.034093785918341</v>
+        <v>1.033777820090036</v>
       </c>
       <c r="M7">
-        <v>1.044708370538307</v>
+        <v>1.044264237159401</v>
       </c>
       <c r="N7">
-        <v>1.013496871395023</v>
+        <v>1.014775357679239</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043956058743079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043604558542089</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021802220125513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00505289130407</v>
+        <v>1.004938139668155</v>
       </c>
       <c r="D8">
-        <v>1.024955882030974</v>
+        <v>1.024426896873998</v>
       </c>
       <c r="E8">
-        <v>1.020683341180169</v>
+        <v>1.020539653619388</v>
       </c>
       <c r="F8">
-        <v>1.031551602975307</v>
+        <v>1.031282309505651</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04487382980504</v>
+        <v>1.044664977368953</v>
       </c>
       <c r="J8">
-        <v>1.026515528409598</v>
+        <v>1.026404060337298</v>
       </c>
       <c r="K8">
-        <v>1.035808096384406</v>
+        <v>1.035285851627186</v>
       </c>
       <c r="L8">
-        <v>1.031590246502847</v>
+        <v>1.031448408178452</v>
       </c>
       <c r="M8">
-        <v>1.042320497615955</v>
+        <v>1.042054579943449</v>
       </c>
       <c r="N8">
-        <v>1.012696903080191</v>
+        <v>1.014243997857314</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042066223979726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04185576839664</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021432159272839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9965236704761768</v>
+        <v>0.9967538518578255</v>
       </c>
       <c r="D9">
-        <v>1.019104193379329</v>
+        <v>1.019016046191483</v>
       </c>
       <c r="E9">
-        <v>1.014149838989454</v>
+        <v>1.014312872242064</v>
       </c>
       <c r="F9">
-        <v>1.025262333000684</v>
+        <v>1.025309608442791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043426753711407</v>
+        <v>1.04340320554441</v>
       </c>
       <c r="J9">
-        <v>1.022199786966982</v>
+        <v>1.022421763051317</v>
       </c>
       <c r="K9">
-        <v>1.031894740003202</v>
+        <v>1.031807955428159</v>
       </c>
       <c r="L9">
-        <v>1.027017441864536</v>
+        <v>1.027177924104746</v>
       </c>
       <c r="M9">
-        <v>1.037958424157756</v>
+        <v>1.038004980069224</v>
       </c>
       <c r="N9">
-        <v>1.01122887580167</v>
+        <v>1.013176338466914</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038613934531268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038650780509508</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020726068602005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9906663408992803</v>
+        <v>0.991170436648078</v>
       </c>
       <c r="D10">
-        <v>1.015120463983592</v>
+        <v>1.015361159682247</v>
       </c>
       <c r="E10">
-        <v>1.009720631154988</v>
+        <v>1.010124383546409</v>
       </c>
       <c r="F10">
-        <v>1.021034520539209</v>
+        <v>1.021324482217639</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042397516106067</v>
+        <v>1.042512223209096</v>
       </c>
       <c r="J10">
-        <v>1.019255233863057</v>
+        <v>1.019738805250504</v>
       </c>
       <c r="K10">
-        <v>1.029221976993772</v>
+        <v>1.029458494089388</v>
       </c>
       <c r="L10">
-        <v>1.02391656693616</v>
+        <v>1.02431321395486</v>
       </c>
       <c r="M10">
-        <v>1.035034099551218</v>
+        <v>1.035319102705523</v>
       </c>
       <c r="N10">
-        <v>1.010229735876677</v>
+        <v>1.012569583238096</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03635108934579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036576637375392</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020243082147477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9885170642922497</v>
+        <v>0.9891529211800834</v>
       </c>
       <c r="D11">
-        <v>1.013818212165565</v>
+        <v>1.014193619296685</v>
       </c>
       <c r="E11">
-        <v>1.00828997930524</v>
+        <v>1.008805770076625</v>
       </c>
       <c r="F11">
-        <v>1.019939884476275</v>
+        <v>1.020336834893895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042133030409413</v>
+        <v>1.042303220916016</v>
       </c>
       <c r="J11">
-        <v>1.018375474140777</v>
+        <v>1.018984018750933</v>
       </c>
       <c r="K11">
-        <v>1.028484158791724</v>
+        <v>1.028852738472342</v>
       </c>
       <c r="L11">
-        <v>1.023057234005232</v>
+        <v>1.023563511408639</v>
       </c>
       <c r="M11">
-        <v>1.034495312256865</v>
+        <v>1.034885155711783</v>
       </c>
       <c r="N11">
-        <v>1.009961171769842</v>
+        <v>1.012616121910074</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03636197538492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036670336925403</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020154288949685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9878853480128315</v>
+        <v>0.9885572804641123</v>
       </c>
       <c r="D12">
-        <v>1.013509276903576</v>
+        <v>1.013917645480817</v>
       </c>
       <c r="E12">
-        <v>1.007955351461974</v>
+        <v>1.008500450983469</v>
       </c>
       <c r="F12">
-        <v>1.019820233935459</v>
+        <v>1.020244684048852</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042111916185913</v>
+        <v>1.042294518589979</v>
       </c>
       <c r="J12">
-        <v>1.018211420844969</v>
+        <v>1.018853937805267</v>
       </c>
       <c r="K12">
-        <v>1.02838215772558</v>
+        <v>1.028782976105161</v>
       </c>
       <c r="L12">
-        <v>1.022931710246581</v>
+        <v>1.023466587888703</v>
       </c>
       <c r="M12">
-        <v>1.034577312254223</v>
+        <v>1.034994040846737</v>
       </c>
       <c r="N12">
-        <v>1.009930907229906</v>
+        <v>1.012700953954601</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036753912770847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037083428117644</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020167166169109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.988380581609324</v>
+        <v>0.9890063924524481</v>
       </c>
       <c r="D13">
-        <v>1.013945580261615</v>
+        <v>1.014302239970079</v>
       </c>
       <c r="E13">
-        <v>1.008443377638686</v>
+        <v>1.00894700883321</v>
       </c>
       <c r="F13">
-        <v>1.02045187319048</v>
+        <v>1.020836700321495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042281697571332</v>
+        <v>1.042440812793315</v>
       </c>
       <c r="J13">
-        <v>1.018590515744802</v>
+        <v>1.019189067956494</v>
       </c>
       <c r="K13">
-        <v>1.028767240906601</v>
+        <v>1.029117335450693</v>
       </c>
       <c r="L13">
-        <v>1.023367087312806</v>
+        <v>1.023861317299835</v>
       </c>
       <c r="M13">
-        <v>1.035154708788186</v>
+        <v>1.035532569479049</v>
       </c>
       <c r="N13">
-        <v>1.010082973618529</v>
+        <v>1.012785350640241</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037487593133915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037786299545101</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020258937685362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9892369408066422</v>
+        <v>0.9897939657406999</v>
       </c>
       <c r="D14">
-        <v>1.014587570225519</v>
+        <v>1.014870382840235</v>
       </c>
       <c r="E14">
-        <v>1.00915651670042</v>
+        <v>1.009599794729022</v>
       </c>
       <c r="F14">
-        <v>1.021233355598232</v>
+        <v>1.021560685317433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042486237430468</v>
+        <v>1.042613076751032</v>
       </c>
       <c r="J14">
-        <v>1.019100738107302</v>
+        <v>1.019633849560525</v>
       </c>
       <c r="K14">
-        <v>1.029256146992287</v>
+        <v>1.029533818974308</v>
       </c>
       <c r="L14">
-        <v>1.023924541168258</v>
+        <v>1.024359650106569</v>
       </c>
       <c r="M14">
-        <v>1.03578211054965</v>
+        <v>1.036103590905755</v>
       </c>
       <c r="N14">
-        <v>1.010271540102213</v>
+        <v>1.012845107815715</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038157091749441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038411193994271</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020358739394914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9896924318655409</v>
+        <v>0.9902154898448304</v>
       </c>
       <c r="D15">
-        <v>1.014909433067449</v>
+        <v>1.015156255443589</v>
       </c>
       <c r="E15">
-        <v>1.009513776183752</v>
+        <v>1.009927546524987</v>
       </c>
       <c r="F15">
-        <v>1.021596599730346</v>
+        <v>1.021895776795305</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042579124289845</v>
+        <v>1.042690533289223</v>
       </c>
       <c r="J15">
-        <v>1.019346668012143</v>
+        <v>1.019847467129891</v>
       </c>
       <c r="K15">
-        <v>1.029485154947714</v>
+        <v>1.029727525013068</v>
       </c>
       <c r="L15">
-        <v>1.024187536069153</v>
+        <v>1.024593740003576</v>
       </c>
       <c r="M15">
-        <v>1.036052681651701</v>
+        <v>1.036346553620078</v>
       </c>
       <c r="N15">
-        <v>1.010358296841077</v>
+        <v>1.012863363663737</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038408528501587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038640802595023</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020401519373362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9920721740579497</v>
+        <v>0.9924377034270521</v>
       </c>
       <c r="D16">
-        <v>1.016510928791504</v>
+        <v>1.016590259627078</v>
       </c>
       <c r="E16">
-        <v>1.011293252097054</v>
+        <v>1.011571137190874</v>
       </c>
       <c r="F16">
-        <v>1.02328404905765</v>
+        <v>1.023452573338683</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042995673079447</v>
+        <v>1.043036641754392</v>
       </c>
       <c r="J16">
-        <v>1.020526097071649</v>
+        <v>1.020876848241735</v>
       </c>
       <c r="K16">
-        <v>1.030552516270097</v>
+        <v>1.03063047848516</v>
       </c>
       <c r="L16">
-        <v>1.025425465971514</v>
+        <v>1.025698493921588</v>
       </c>
       <c r="M16">
-        <v>1.037209772897039</v>
+        <v>1.037375439573581</v>
       </c>
       <c r="N16">
-        <v>1.010753748819627</v>
+        <v>1.012930961710425</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039284331734957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.039415277117256</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02058316503451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9934501529155481</v>
+        <v>0.9937394859239975</v>
       </c>
       <c r="D17">
-        <v>1.0174034784128</v>
+        <v>1.017399489209284</v>
       </c>
       <c r="E17">
-        <v>1.012285485921569</v>
+        <v>1.012497824182667</v>
       </c>
       <c r="F17">
-        <v>1.024165682127106</v>
+        <v>1.024270116551609</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043205074270397</v>
+        <v>1.043211604998193</v>
       </c>
       <c r="J17">
-        <v>1.021162379993198</v>
+        <v>1.021440390654141</v>
       </c>
       <c r="K17">
-        <v>1.031113090748365</v>
+        <v>1.031109168439541</v>
       </c>
       <c r="L17">
-        <v>1.026081481275926</v>
+        <v>1.026290213211755</v>
       </c>
       <c r="M17">
-        <v>1.037762863376782</v>
+        <v>1.037865576409129</v>
       </c>
       <c r="N17">
-        <v>1.010957772154615</v>
+        <v>1.012980278956271</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039592333065975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.03967352706455</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020670710813028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9940913910249189</v>
+        <v>0.9943570819224186</v>
       </c>
       <c r="D18">
-        <v>1.017758227875876</v>
+        <v>1.017728211114821</v>
       </c>
       <c r="E18">
-        <v>1.012677474853187</v>
+        <v>1.01287012711087</v>
       </c>
       <c r="F18">
-        <v>1.024405310017421</v>
+        <v>1.024489830504983</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043252576203134</v>
+        <v>1.043249233490394</v>
       </c>
       <c r="J18">
-        <v>1.021379492022287</v>
+        <v>1.021634980108003</v>
       </c>
       <c r="K18">
-        <v>1.031277313342555</v>
+        <v>1.031247791724416</v>
       </c>
       <c r="L18">
-        <v>1.02628090872967</v>
+        <v>1.026470342772306</v>
       </c>
       <c r="M18">
-        <v>1.037815666045077</v>
+        <v>1.037898815657182</v>
       </c>
       <c r="N18">
-        <v>1.011012002547374</v>
+        <v>1.012977711789048</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039396095819217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.039461838795395</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020680006647638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9940653911240822</v>
+        <v>0.9943485933939883</v>
       </c>
       <c r="D19">
-        <v>1.017626490900844</v>
+        <v>1.017617397649871</v>
       </c>
       <c r="E19">
-        <v>1.012523812833747</v>
+        <v>1.012732932177577</v>
       </c>
       <c r="F19">
-        <v>1.024060566076892</v>
+        <v>1.024160656231872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043156253479652</v>
+        <v>1.043163105370625</v>
       </c>
       <c r="J19">
-        <v>1.021218540377026</v>
+        <v>1.02149093055504</v>
       </c>
       <c r="K19">
-        <v>1.031084799449103</v>
+        <v>1.031075855440795</v>
       </c>
       <c r="L19">
-        <v>1.026066411449802</v>
+        <v>1.026272054900663</v>
       </c>
       <c r="M19">
-        <v>1.037414128406722</v>
+        <v>1.037512602445514</v>
       </c>
       <c r="N19">
-        <v>1.010933093182051</v>
+        <v>1.012909651323637</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03875262564778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.038830510539733</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02061851636736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9921841306356757</v>
+        <v>0.9925958036410711</v>
       </c>
       <c r="D20">
-        <v>1.016152319977916</v>
+        <v>1.016291542141391</v>
       </c>
       <c r="E20">
-        <v>1.010866815833872</v>
+        <v>1.011190143529873</v>
       </c>
       <c r="F20">
-        <v>1.022130170181066</v>
+        <v>1.022342002321927</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042668514039135</v>
+        <v>1.042740170764248</v>
       </c>
       <c r="J20">
-        <v>1.020019701546359</v>
+        <v>1.020415158841045</v>
       </c>
       <c r="K20">
-        <v>1.029916974401371</v>
+        <v>1.030053848295025</v>
       </c>
       <c r="L20">
-        <v>1.024721239316557</v>
+        <v>1.025039040799192</v>
       </c>
       <c r="M20">
-        <v>1.035794737497185</v>
+        <v>1.03600305058458</v>
       </c>
       <c r="N20">
-        <v>1.010489334295083</v>
+        <v>1.012653864553675</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036942479471579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.037107337906713</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020365131447973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987710434359128</v>
+        <v>0.9884400620430215</v>
       </c>
       <c r="D21">
-        <v>1.013086648651105</v>
+        <v>1.01356169238572</v>
       </c>
       <c r="E21">
-        <v>1.007460770141316</v>
+        <v>1.008060128296762</v>
       </c>
       <c r="F21">
-        <v>1.018827075691313</v>
+        <v>1.019302644777077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041841996159579</v>
+        <v>1.042057237867857</v>
       </c>
       <c r="J21">
-        <v>1.01773111759281</v>
+        <v>1.01842917852301</v>
       </c>
       <c r="K21">
-        <v>1.027824260760243</v>
+        <v>1.028290610174483</v>
       </c>
       <c r="L21">
-        <v>1.022302161234077</v>
+        <v>1.022890391302982</v>
       </c>
       <c r="M21">
-        <v>1.033460331513348</v>
+        <v>1.033927323669816</v>
       </c>
       <c r="N21">
-        <v>1.009707157035958</v>
+        <v>1.012531483045193</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035053977554055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.035423573258806</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01999910204643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9848719962483656</v>
+        <v>0.9858027104265232</v>
       </c>
       <c r="D22">
-        <v>1.011155433719407</v>
+        <v>1.011843202095573</v>
       </c>
       <c r="E22">
-        <v>1.005319403216629</v>
+        <v>1.006093292761294</v>
       </c>
       <c r="F22">
-        <v>1.016767847665174</v>
+        <v>1.017410437500295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041315242683983</v>
+        <v>1.04162144690173</v>
       </c>
       <c r="J22">
-        <v>1.016290838058284</v>
+        <v>1.017178936402632</v>
       </c>
       <c r="K22">
-        <v>1.026509091855685</v>
+        <v>1.027183638012845</v>
       </c>
       <c r="L22">
-        <v>1.02078621312798</v>
+        <v>1.021544999111241</v>
       </c>
       <c r="M22">
-        <v>1.032014291416318</v>
+        <v>1.032644704456188</v>
       </c>
       <c r="N22">
-        <v>1.009216428265436</v>
+        <v>1.012450780094609</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033909524109811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.034408458203369</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019769100146619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9863818210497134</v>
+        <v>0.9871932686597972</v>
       </c>
       <c r="D23">
-        <v>1.012182257572549</v>
+        <v>1.012747287566548</v>
       </c>
       <c r="E23">
-        <v>1.006457667037435</v>
+        <v>1.007128238895892</v>
       </c>
       <c r="F23">
-        <v>1.017862393856277</v>
+        <v>1.018407234558494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041596345560277</v>
+        <v>1.041849830255806</v>
       </c>
       <c r="J23">
-        <v>1.017056993257197</v>
+        <v>1.017832378399091</v>
       </c>
       <c r="K23">
-        <v>1.027208869987933</v>
+        <v>1.027763314803742</v>
       </c>
       <c r="L23">
-        <v>1.021592399561013</v>
+        <v>1.022250223245764</v>
       </c>
       <c r="M23">
-        <v>1.032783292579259</v>
+        <v>1.033318073965276</v>
       </c>
       <c r="N23">
-        <v>1.009477484819806</v>
+        <v>1.012451479784295</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034518142339523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.034941389374699</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019888859339282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9922147178319479</v>
+        <v>0.9926264606047343</v>
       </c>
       <c r="D24">
-        <v>1.016158211115857</v>
+        <v>1.01629777603312</v>
       </c>
       <c r="E24">
-        <v>1.010871745822407</v>
+        <v>1.011195300168485</v>
       </c>
       <c r="F24">
-        <v>1.02210811748475</v>
+        <v>1.022320146082354</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042662122400543</v>
+        <v>1.042734083400728</v>
       </c>
       <c r="J24">
-        <v>1.020015784879589</v>
+        <v>1.020411333435202</v>
       </c>
       <c r="K24">
-        <v>1.029907390389746</v>
+        <v>1.03004460431313</v>
       </c>
       <c r="L24">
-        <v>1.024710593928823</v>
+        <v>1.025028625366567</v>
       </c>
       <c r="M24">
-        <v>1.035757803230546</v>
+        <v>1.035966313828891</v>
       </c>
       <c r="N24">
-        <v>1.010485332150488</v>
+        <v>1.01264691861512</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036872283918599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.037037306893886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020359900143178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9987671159027328</v>
+        <v>0.9988964285155214</v>
       </c>
       <c r="D25">
-        <v>1.020640826503184</v>
+        <v>1.020429211570433</v>
       </c>
       <c r="E25">
-        <v>1.015862503766134</v>
+        <v>1.015936448533833</v>
       </c>
       <c r="F25">
-        <v>1.026910644379847</v>
+        <v>1.026867550392582</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043816408646191</v>
+        <v>1.043740855911459</v>
       </c>
       <c r="J25">
-        <v>1.023336042871769</v>
+        <v>1.02346098940568</v>
       </c>
       <c r="K25">
-        <v>1.032926952631627</v>
+        <v>1.032718456946952</v>
       </c>
       <c r="L25">
-        <v>1.028219466035756</v>
+        <v>1.028292308155351</v>
       </c>
       <c r="M25">
-        <v>1.039105091693601</v>
+        <v>1.039062622992533</v>
       </c>
       <c r="N25">
-        <v>1.011615558523577</v>
+        <v>1.013424653578813</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039521446812262</v>
+        <v>1.039487835636312</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020912527166769</v>
       </c>
     </row>
   </sheetData>
